--- a/data/nzd0478/nzd0478.xlsx
+++ b/data/nzd0478/nzd0478.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J604"/>
+  <dimension ref="A1:J611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20621,6 +20621,256 @@
       <c r="J604" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>343.2771428571428</v>
+      </c>
+      <c r="C605" t="n">
+        <v>336.4171428571428</v>
+      </c>
+      <c r="D605" t="n">
+        <v>333.1271428571428</v>
+      </c>
+      <c r="E605" t="n">
+        <v>345.9085714285715</v>
+      </c>
+      <c r="F605" t="n">
+        <v>340.0952941176471</v>
+      </c>
+      <c r="G605" t="n">
+        <v>336.6166666666667</v>
+      </c>
+      <c r="H605" t="n">
+        <v>335.5188888888889</v>
+      </c>
+      <c r="I605" t="n">
+        <v>344.73</v>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:33+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>343.7</v>
+      </c>
+      <c r="C606" t="n">
+        <v>337.73</v>
+      </c>
+      <c r="D606" t="n">
+        <v>343.16</v>
+      </c>
+      <c r="E606" t="n">
+        <v>338.86</v>
+      </c>
+      <c r="F606" t="n">
+        <v>322.55</v>
+      </c>
+      <c r="G606" t="n">
+        <v>341.38</v>
+      </c>
+      <c r="H606" t="n">
+        <v>342.29</v>
+      </c>
+      <c r="I606" t="n">
+        <v>343.48</v>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>337.6971428571428</v>
+      </c>
+      <c r="C607" t="n">
+        <v>330.8671428571428</v>
+      </c>
+      <c r="D607" t="n">
+        <v>331.9471428571428</v>
+      </c>
+      <c r="E607" t="n">
+        <v>342.8185714285714</v>
+      </c>
+      <c r="F607" t="n">
+        <v>321.6629411764706</v>
+      </c>
+      <c r="G607" t="n">
+        <v>326.91</v>
+      </c>
+      <c r="H607" t="n">
+        <v>323.5566666666667</v>
+      </c>
+      <c r="I607" t="n">
+        <v>328.92</v>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>349.66</v>
+      </c>
+      <c r="C608" t="n">
+        <v>342.3</v>
+      </c>
+      <c r="D608" t="n">
+        <v>339.14</v>
+      </c>
+      <c r="E608" t="n">
+        <v>331.79</v>
+      </c>
+      <c r="F608" t="n">
+        <v>327.0911764705882</v>
+      </c>
+      <c r="G608" t="n">
+        <v>334.08</v>
+      </c>
+      <c r="H608" t="n">
+        <v>333.7433333333333</v>
+      </c>
+      <c r="I608" t="n">
+        <v>342.77</v>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:33+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>335.8314285714285</v>
+      </c>
+      <c r="C609" t="n">
+        <v>328.3914285714285</v>
+      </c>
+      <c r="D609" t="n">
+        <v>318.4314285714286</v>
+      </c>
+      <c r="E609" t="n">
+        <v>320.1257142857143</v>
+      </c>
+      <c r="F609" t="n">
+        <v>315.3870588235294</v>
+      </c>
+      <c r="G609" t="n">
+        <v>326.61</v>
+      </c>
+      <c r="H609" t="n">
+        <v>313.51</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>351.4042857142857</v>
+      </c>
+      <c r="C610" t="n">
+        <v>348.2042857142857</v>
+      </c>
+      <c r="D610" t="n">
+        <v>344.6242857142857</v>
+      </c>
+      <c r="E610" t="n">
+        <v>344.4471428571428</v>
+      </c>
+      <c r="F610" t="n">
+        <v>342.1370588235294</v>
+      </c>
+      <c r="G610" t="n">
+        <v>338.69</v>
+      </c>
+      <c r="H610" t="n">
+        <v>339.5766666666667</v>
+      </c>
+      <c r="I610" t="n">
+        <v>341.89</v>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>344.2728571428572</v>
+      </c>
+      <c r="C611" t="n">
+        <v>345.3928571428572</v>
+      </c>
+      <c r="D611" t="n">
+        <v>336.1328571428572</v>
+      </c>
+      <c r="E611" t="n">
+        <v>334.2614285714285</v>
+      </c>
+      <c r="F611" t="n">
+        <v>335.5411764705883</v>
+      </c>
+      <c r="G611" t="n">
+        <v>337.2933333333333</v>
+      </c>
+      <c r="H611" t="n">
+        <v>336.5811111111111</v>
+      </c>
+      <c r="I611" t="n">
+        <v>342.12</v>
+      </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -20635,7 +20885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B678"/>
+  <dimension ref="A1:B688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27423,6 +27673,106 @@
       </c>
       <c r="B678" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -27591,28 +27941,28 @@
         <v>0.0359</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4065410811594872</v>
+        <v>-0.3892244996734978</v>
       </c>
       <c r="J2" t="n">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="K2" t="n">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08807647533093566</v>
+        <v>0.08258205230013971</v>
       </c>
       <c r="M2" t="n">
-        <v>6.569903827424607</v>
+        <v>6.559742757096497</v>
       </c>
       <c r="N2" t="n">
-        <v>74.5408488494098</v>
+        <v>74.33583858925169</v>
       </c>
       <c r="O2" t="n">
-        <v>8.633704236850473</v>
+        <v>8.621823391212075</v>
       </c>
       <c r="P2" t="n">
-        <v>348.1876033383882</v>
+        <v>347.9907453111988</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -27668,28 +28018,28 @@
         <v>0.0356</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3838989039773369</v>
+        <v>-0.3709598583050512</v>
       </c>
       <c r="J3" t="n">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="K3" t="n">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07620426919203305</v>
+        <v>0.07262162259833127</v>
       </c>
       <c r="M3" t="n">
-        <v>6.704707673893557</v>
+        <v>6.706624543416158</v>
       </c>
       <c r="N3" t="n">
-        <v>76.9348743066576</v>
+        <v>76.74577209300173</v>
       </c>
       <c r="O3" t="n">
-        <v>8.771252721627487</v>
+        <v>8.760466431246781</v>
       </c>
       <c r="P3" t="n">
-        <v>343.9302131399407</v>
+        <v>343.7819918533453</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -27745,28 +28095,28 @@
         <v>0.0357</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3351140979365971</v>
+        <v>-0.3201882364411771</v>
       </c>
       <c r="J4" t="n">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="K4" t="n">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03308374871015829</v>
+        <v>0.0307841206189976</v>
       </c>
       <c r="M4" t="n">
-        <v>9.08010307246299</v>
+        <v>9.066551614023945</v>
       </c>
       <c r="N4" t="n">
-        <v>139.5810518049864</v>
+        <v>138.9642141425828</v>
       </c>
       <c r="O4" t="n">
-        <v>11.81444250927594</v>
+        <v>11.78830836645287</v>
       </c>
       <c r="P4" t="n">
-        <v>338.4014893228747</v>
+        <v>338.2282049703635</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -27822,28 +28172,28 @@
         <v>0.076</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.44212563617751</v>
+        <v>-0.4316645389082059</v>
       </c>
       <c r="J5" t="n">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="K5" t="n">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09916658463740835</v>
+        <v>0.09589592768422905</v>
       </c>
       <c r="M5" t="n">
-        <v>6.855889335610129</v>
+        <v>6.868342143337044</v>
       </c>
       <c r="N5" t="n">
-        <v>76.14055566809452</v>
+        <v>76.24470533270218</v>
       </c>
       <c r="O5" t="n">
-        <v>8.725855583728997</v>
+        <v>8.73182142125583</v>
       </c>
       <c r="P5" t="n">
-        <v>344.3079039914438</v>
+        <v>344.1872413498104</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -27899,28 +28249,28 @@
         <v>0.0931</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4204422990584039</v>
+        <v>-0.4302202566049812</v>
       </c>
       <c r="J6" t="n">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="K6" t="n">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09842132747563559</v>
+        <v>0.1031293482353065</v>
       </c>
       <c r="M6" t="n">
-        <v>6.404144514898267</v>
+        <v>6.437581670137635</v>
       </c>
       <c r="N6" t="n">
-        <v>70.31220310449744</v>
+        <v>70.72675564143709</v>
       </c>
       <c r="O6" t="n">
-        <v>8.385237212178165</v>
+        <v>8.409920073427399</v>
       </c>
       <c r="P6" t="n">
-        <v>343.4530841900229</v>
+        <v>343.5653731934436</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -27976,28 +28326,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5619380026361118</v>
+        <v>-0.5572447753589669</v>
       </c>
       <c r="J7" t="n">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="K7" t="n">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1777438489330708</v>
+        <v>0.1780994335089696</v>
       </c>
       <c r="M7" t="n">
-        <v>6.158404904550297</v>
+        <v>6.145739085809131</v>
       </c>
       <c r="N7" t="n">
-        <v>63.97563184770821</v>
+        <v>63.52062705734241</v>
       </c>
       <c r="O7" t="n">
-        <v>7.998476845481783</v>
+        <v>7.969982876853777</v>
       </c>
       <c r="P7" t="n">
-        <v>347.0966719717526</v>
+        <v>347.0429316627039</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28053,28 +28403,28 @@
         <v>0.0504</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5452313785352033</v>
+        <v>-0.5465576671936381</v>
       </c>
       <c r="J8" t="n">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="K8" t="n">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1336481513028749</v>
+        <v>0.1355416849608375</v>
       </c>
       <c r="M8" t="n">
-        <v>6.942510826269083</v>
+        <v>6.95093518882215</v>
       </c>
       <c r="N8" t="n">
-        <v>83.40711489556192</v>
+        <v>83.46685957986269</v>
       </c>
       <c r="O8" t="n">
-        <v>9.132749580250294</v>
+        <v>9.13601989817572</v>
       </c>
       <c r="P8" t="n">
-        <v>346.4226967104573</v>
+        <v>346.4379413997817</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28130,28 +28480,28 @@
         <v>0.0518</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4050028367207004</v>
+        <v>-0.3980410007428963</v>
       </c>
       <c r="J9" t="n">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="K9" t="n">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07806903505659901</v>
+        <v>0.07680844842146839</v>
       </c>
       <c r="M9" t="n">
-        <v>6.864048964078558</v>
+        <v>6.852209661596691</v>
       </c>
       <c r="N9" t="n">
-        <v>83.43591517179128</v>
+        <v>82.89643371727972</v>
       </c>
       <c r="O9" t="n">
-        <v>9.13432620239672</v>
+        <v>9.104747866760491</v>
       </c>
       <c r="P9" t="n">
-        <v>348.017212559942</v>
+        <v>347.9370343763816</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28188,7 +28538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J604"/>
+  <dimension ref="A1:J611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56460,6 +56810,366 @@
         </is>
       </c>
     </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>-45.21646863081951,170.8880774379624</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>-45.2167880094806,170.88730462018927</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>-45.21703808870515,170.88648951502984</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>-45.21739063338535,170.88577642366118</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>-45.217826961311744,170.88515522508524</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>-45.21835629560362,170.88465918394454</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>-45.21893550227194,170.8842891748705</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>-45.2195506123283,170.88403990710012</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:33+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>-45.21647174677312,170.888080527923</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>-45.21679822323341,170.88731301988045</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>-45.21712037109245,170.88654208030647</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>-45.21733935859397,170.88572360009752</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>-45.21773296833825,170.88497574049987</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>-45.21837642006042,170.88471273090715</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>-45.21896062921639,170.8843677136755</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>-45.21954597367325,170.88402540808846</t>
+        </is>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>-45.216427512856754,170.8880366630408</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>-45.21674483163995,170.88726911119016</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>-45.21702841117954,170.88648333265053</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>-45.217368155201385,170.88575326650158</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>-45.217728216213644,170.88496666609473</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>-45.218315286137866,170.88455006667022</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>-45.218891111482385,170.88415042401394</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>-45.219491942486506,170.88385652377846</t>
+        </is>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>-45.21651566486754,170.88812407970045</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>-45.21683377686899,170.88734225887217</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>-45.2170874019028,170.88652101825127</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>-45.21728792789734,170.88567061603803</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>-45.217757296180004,170.88502219570128</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>-45.21834557851061,170.88463066804803</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>-45.21892891334668,170.88426858003314</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>-45.21954333891638,170.8840171726509</t>
+        </is>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:33+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>-45.216413764758606,170.88802302965706</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>-45.21672557109661,170.88725327154302</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>-45.21691756482589,170.88641251985388</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>-45.21720307603031,170.88558320164722</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>-45.21769459522737,170.88490246532362</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>-45.21831401867337,170.8845466942295</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>-45.218853829029136,170.88403389202372</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>-45.21652851817073,170.88813682581085</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>-45.216879710955425,170.88738003471553</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>-45.21713238012474,170.8865497521697</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>-45.21738000223371,170.88576547138234</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>-45.21783789935722,170.8851761119378</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>-45.21836505516725,170.8846824912951</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>-45.21895056030276,170.88433624143826</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>-45.21954007330144,170.88400696534913</t>
+        </is>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>-45.21647596804798,170.888084713985</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>-45.216857838640856,170.8873620470817</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>-45.217062739446924,170.88650526289155</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>-45.2173059063007,170.88568913743015</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>-45.21780256419442,170.88510863738384</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>-45.218359154432775,170.88466679068355</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>-45.21893944408031,170.8843014956892</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>-45.21954092681451,170.8840096331665</t>
+        </is>
+      </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0478/nzd0478.xlsx
+++ b/data/nzd0478/nzd0478.xlsx
@@ -27786,7 +27786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27877,35 +27877,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -27964,27 +27969,28 @@
       <c r="P2" t="n">
         <v>347.9907453111988</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.88556910580243 -45.213939060962964, 170.89201099398215 -45.22043493907678)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.8855691058024</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.21393906096296</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.8920109939822</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.22043493907678</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.8887900498923</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.21718700001988</v>
       </c>
     </row>
@@ -28041,27 +28047,28 @@
       <c r="P3" t="n">
         <v>343.7819918533453</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.88515231304046 -45.214170735647244, 170.89079212026783 -45.22102833686849)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.8851523130405</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.21417073564724</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.8907921202678</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.22102833686849</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.8879722166541</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.21759953625786</v>
       </c>
     </row>
@@ -28118,27 +28125,28 @@
       <c r="P4" t="n">
         <v>338.2282049703635</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.8847442419193 -45.214306003055356, 170.88936223717639 -45.22153449450688)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.8847442419193</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.21430600305536</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.8893622371764</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.22153449450688</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.8870532395478</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.21792024878111</v>
       </c>
     </row>
@@ -28195,27 +28203,28 @@
       <c r="P5" t="n">
         <v>344.1872413498104</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.8831842189499 -45.21487429622155, 170.88979094492086 -45.22128711469975)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.8831842189499</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.21487429622155</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.8897909449209</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.22128711469975</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.8864875819354</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.21808070546065</v>
       </c>
     </row>
@@ -28272,27 +28281,28 @@
       <c r="P6" t="n">
         <v>343.5653731934436</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.88167622964338 -45.21600496729117, 170.8906973783957 -45.22072900313468)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.8816762296434</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.21600496729117</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.8906973783957</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.22072900313468</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.8861868040195</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.21836698521292</v>
       </c>
     </row>
@@ -28349,27 +28359,28 @@
       <c r="P7" t="n">
         <v>347.0429316627039</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.88087520855265 -45.21693407243156, 170.890789852703 -45.220660120544615)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.8808752085527</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.21693407243156</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.890789852703</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.22066012054461</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.8858325306278</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.21879709648809</v>
       </c>
     </row>
@@ -28426,27 +28437,28 @@
       <c r="P8" t="n">
         <v>346.4379413997817</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.8803975459067 -45.21769035759985, 170.8906280835417 -45.22096326834051)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.8803975459067</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.21769035759985</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.8906280835417</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.22096326834051</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.8855128147242</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.21932681297018</v>
       </c>
     </row>
@@ -28503,27 +28515,28 @@
       <c r="P9" t="n">
         <v>347.9370343763816</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (170.88004140310466 -45.21827127720029, 170.8902719955604 -45.22154420013217)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>170.8800414031047</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-45.21827127720029</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>170.8902719955604</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-45.22154420013217</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>170.8851566993325</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-45.21990773866623</v>
       </c>
     </row>

--- a/data/nzd0478/nzd0478.xlsx
+++ b/data/nzd0478/nzd0478.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J611"/>
+  <dimension ref="A1:J617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20869,6 +20869,208 @@
         <v>342.12</v>
       </c>
       <c r="J611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr"/>
+      <c r="C612" t="inlineStr"/>
+      <c r="D612" t="inlineStr"/>
+      <c r="E612" t="inlineStr"/>
+      <c r="F612" t="inlineStr"/>
+      <c r="G612" t="inlineStr"/>
+      <c r="H612" t="inlineStr"/>
+      <c r="I612" t="n">
+        <v>349.11</v>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>336.7942857142857</v>
+      </c>
+      <c r="C613" t="n">
+        <v>333.0542857142857</v>
+      </c>
+      <c r="D613" t="n">
+        <v>329.3042857142857</v>
+      </c>
+      <c r="E613" t="n">
+        <v>327.3271428571429</v>
+      </c>
+      <c r="F613" t="n">
+        <v>331.08</v>
+      </c>
+      <c r="G613" t="n">
+        <v>330.6866666666667</v>
+      </c>
+      <c r="H613" t="n">
+        <v>332.7955555555556</v>
+      </c>
+      <c r="I613" t="n">
+        <v>327.46</v>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>348.5</v>
+      </c>
+      <c r="C614" t="n">
+        <v>348.11</v>
+      </c>
+      <c r="D614" t="n">
+        <v>337.43</v>
+      </c>
+      <c r="E614" t="n">
+        <v>337.82</v>
+      </c>
+      <c r="F614" t="n">
+        <v>344.4623529411764</v>
+      </c>
+      <c r="G614" t="n">
+        <v>342.4666666666667</v>
+      </c>
+      <c r="H614" t="n">
+        <v>346.5122222222222</v>
+      </c>
+      <c r="I614" t="n">
+        <v>341.79</v>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>333.2471428571428</v>
+      </c>
+      <c r="C615" t="n">
+        <v>329.6171428571428</v>
+      </c>
+      <c r="D615" t="n">
+        <v>324.0371428571428</v>
+      </c>
+      <c r="E615" t="n">
+        <v>322.5485714285714</v>
+      </c>
+      <c r="F615" t="n">
+        <v>326.6729411764706</v>
+      </c>
+      <c r="G615" t="n">
+        <v>333.4</v>
+      </c>
+      <c r="H615" t="n">
+        <v>325.8166666666667</v>
+      </c>
+      <c r="I615" t="n">
+        <v>333.09</v>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:13:56+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>340.4742857142857</v>
+      </c>
+      <c r="C616" t="n">
+        <v>336.3642857142857</v>
+      </c>
+      <c r="D616" t="n">
+        <v>325.0542857142857</v>
+      </c>
+      <c r="E616" t="n">
+        <v>330.3571428571428</v>
+      </c>
+      <c r="F616" t="n">
+        <v>338.4564705882353</v>
+      </c>
+      <c r="G616" t="n">
+        <v>334.0466666666667</v>
+      </c>
+      <c r="H616" t="n">
+        <v>335.3955555555555</v>
+      </c>
+      <c r="I616" t="n">
+        <v>338.63</v>
+      </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:05+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>340.3171428571428</v>
+      </c>
+      <c r="C617" t="n">
+        <v>338.1071428571428</v>
+      </c>
+      <c r="D617" t="n">
+        <v>335.4771428571428</v>
+      </c>
+      <c r="E617" t="n">
+        <v>336.2385714285714</v>
+      </c>
+      <c r="F617" t="n">
+        <v>339.9711764705882</v>
+      </c>
+      <c r="G617" t="n">
+        <v>334.7033333333333</v>
+      </c>
+      <c r="H617" t="n">
+        <v>336.3311111111111</v>
+      </c>
+      <c r="I617" t="n">
+        <v>335.59</v>
+      </c>
+      <c r="J617" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20885,7 +21087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B688"/>
+  <dimension ref="A1:B694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27773,6 +27975,66 @@
       </c>
       <c r="B688" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
@@ -27946,28 +28208,28 @@
         <v>0.0359</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3892244996734978</v>
+        <v>-0.385287889889953</v>
       </c>
       <c r="J2" t="n">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="K2" t="n">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08258205230013971</v>
+        <v>0.08228244556172404</v>
       </c>
       <c r="M2" t="n">
-        <v>6.559742757096497</v>
+        <v>6.534628724053351</v>
       </c>
       <c r="N2" t="n">
-        <v>74.33583858925169</v>
+        <v>73.8799208403626</v>
       </c>
       <c r="O2" t="n">
-        <v>8.621823391212075</v>
+        <v>8.595342973980888</v>
       </c>
       <c r="P2" t="n">
-        <v>347.9907453111988</v>
+        <v>347.9454820125799</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28024,28 +28286,28 @@
         <v>0.0356</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3709598583050512</v>
+        <v>-0.3650027317998222</v>
       </c>
       <c r="J3" t="n">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="K3" t="n">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07262162259833127</v>
+        <v>0.07141604146149416</v>
       </c>
       <c r="M3" t="n">
-        <v>6.706624543416158</v>
+        <v>6.690525521542437</v>
       </c>
       <c r="N3" t="n">
-        <v>76.74577209300173</v>
+        <v>76.44113979614907</v>
       </c>
       <c r="O3" t="n">
-        <v>8.760466431246781</v>
+        <v>8.743062380890867</v>
       </c>
       <c r="P3" t="n">
-        <v>343.7819918533453</v>
+        <v>343.7131114691446</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28102,28 +28364,28 @@
         <v>0.0357</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3201882364411771</v>
+        <v>-0.3197000541045283</v>
       </c>
       <c r="J4" t="n">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="K4" t="n">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0307841206189976</v>
+        <v>0.03119322625632626</v>
       </c>
       <c r="M4" t="n">
-        <v>9.066551614023945</v>
+        <v>9.026826756207042</v>
       </c>
       <c r="N4" t="n">
-        <v>138.9642141425828</v>
+        <v>137.9201496576715</v>
       </c>
       <c r="O4" t="n">
-        <v>11.78830836645287</v>
+        <v>11.74394097642148</v>
       </c>
       <c r="P4" t="n">
-        <v>338.2282049703635</v>
+        <v>338.2224741327706</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28180,28 +28442,28 @@
         <v>0.076</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4316645389082059</v>
+        <v>-0.4361257973046193</v>
       </c>
       <c r="J5" t="n">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="K5" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09589592768422905</v>
+        <v>0.09892616700058132</v>
       </c>
       <c r="M5" t="n">
-        <v>6.868342143337044</v>
+        <v>6.854730934111113</v>
       </c>
       <c r="N5" t="n">
-        <v>76.24470533270218</v>
+        <v>75.87219975159603</v>
       </c>
       <c r="O5" t="n">
-        <v>8.73182142125583</v>
+        <v>8.710464956108602</v>
       </c>
       <c r="P5" t="n">
-        <v>344.1872413498104</v>
+        <v>344.2393910737317</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28258,28 +28520,28 @@
         <v>0.0931</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4302202566049812</v>
+        <v>-0.4231538486677894</v>
       </c>
       <c r="J6" t="n">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="K6" t="n">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1031293482353065</v>
+        <v>0.1011139572036988</v>
       </c>
       <c r="M6" t="n">
-        <v>6.437581670137635</v>
+        <v>6.440489301369133</v>
       </c>
       <c r="N6" t="n">
-        <v>70.72675564143709</v>
+        <v>70.56391964012489</v>
       </c>
       <c r="O6" t="n">
-        <v>8.409920073427399</v>
+        <v>8.40023330867214</v>
       </c>
       <c r="P6" t="n">
-        <v>343.5653731934436</v>
+        <v>343.4830936453352</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28336,28 +28598,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5572447753589669</v>
+        <v>-0.5526270933536187</v>
       </c>
       <c r="J7" t="n">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="K7" t="n">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1780994335089696</v>
+        <v>0.1779388289586821</v>
       </c>
       <c r="M7" t="n">
-        <v>6.145739085809131</v>
+        <v>6.117317321220283</v>
       </c>
       <c r="N7" t="n">
-        <v>63.52062705734241</v>
+        <v>63.10463071623307</v>
       </c>
       <c r="O7" t="n">
-        <v>7.969982876853777</v>
+        <v>7.9438423144114</v>
       </c>
       <c r="P7" t="n">
-        <v>347.0429316627039</v>
+        <v>346.9894322926802</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28414,28 +28676,28 @@
         <v>0.0504</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5465576671936381</v>
+        <v>-0.540647565728853</v>
       </c>
       <c r="J8" t="n">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="K8" t="n">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1355416849608375</v>
+        <v>0.1344674543574123</v>
       </c>
       <c r="M8" t="n">
-        <v>6.95093518882215</v>
+        <v>6.937427110748137</v>
       </c>
       <c r="N8" t="n">
-        <v>83.46685957986269</v>
+        <v>83.17249136713924</v>
       </c>
       <c r="O8" t="n">
-        <v>9.13601989817572</v>
+        <v>9.119895359440219</v>
       </c>
       <c r="P8" t="n">
-        <v>346.4379413997817</v>
+        <v>346.3690604372728</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28492,28 +28754,28 @@
         <v>0.0518</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3980410007428963</v>
+        <v>-0.398379292221094</v>
       </c>
       <c r="J9" t="n">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="K9" t="n">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07680844842146839</v>
+        <v>0.07806819869679349</v>
       </c>
       <c r="M9" t="n">
-        <v>6.852209661596691</v>
+        <v>6.83748886189528</v>
       </c>
       <c r="N9" t="n">
-        <v>82.89643371727972</v>
+        <v>82.47938426238447</v>
       </c>
       <c r="O9" t="n">
-        <v>9.104747866760491</v>
+        <v>9.081816132381478</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9370343763816</v>
+        <v>347.9411803078974</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28551,7 +28813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J611"/>
+  <dimension ref="A1:J617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57183,6 +57445,290 @@
         </is>
       </c>
     </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr"/>
+      <c r="C612" t="inlineStr"/>
+      <c r="D612" t="inlineStr"/>
+      <c r="E612" t="inlineStr"/>
+      <c r="F612" t="inlineStr"/>
+      <c r="G612" t="inlineStr"/>
+      <c r="H612" t="inlineStr"/>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>-45.21956686616135,170.884090711656</t>
+        </is>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>-45.216420859872244,170.88803006556793</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>-45.21676184715575,170.88728310456287</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>-45.21700673633293,170.88646948592458</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>-45.217255462842644,170.88563717050152</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>-45.21777866495961,170.88506300049082</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>-45.21833124209936,170.88459252196435</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>-45.21892539622801,170.88425758667074</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>-45.219486524510614,170.88383958896873</t>
+        </is>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>-45.21650711705175,170.88811560317478</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>-45.216878977432714,170.8873794314715</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>-45.21707337769417,170.88651205902607</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>-45.21733179311813,170.88571580611392</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>-45.217850356308574,170.8851998992505</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>-45.218381011080716,170.88472494666468</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>-45.21897629745166,170.88441668769536</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>-45.219539702208756,170.88400580542856</t>
+        </is>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>-45.216394721640015,170.88800414544795</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>-45.21673510689962,170.88726111367512</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>-45.216963538944775,170.88644188980473</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>-45.21722070111409,170.88560135898138</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>-45.21775505562435,170.88501791724778</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>-45.21834270559618,170.88462302384107</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>-45.21889949816288,170.88417663793368</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>-45.21950741710276,170.88390489239697</t>
+        </is>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:13:56+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>-45.216447977098,170.8880569565429</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>-45.216787598263124,170.88730428200807</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>-45.21697188083308,170.88644721891393</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>-45.21727750457894,170.88565987791833</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>-45.21781818188105,170.88513846024773</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>-45.218345437681485,170.88463029333198</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>-45.218935044593266,170.8842877443153</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>-45.2195279756746,170.8839691519461</t>
+        </is>
+      </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:05+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>-45.21644681914206,170.88805580824766</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>-45.21680115732552,170.88731543284996</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>-45.217057361742505,170.88650182740156</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>-45.21732028902136,170.88570395455218</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>-45.21782629639443,170.8851539553863</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>-45.21834821201505,170.8846376752384</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>-45.21893851635357,170.88429859591477</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>-45.219516694441,170.8839338903826</t>
+        </is>
+      </c>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0478/nzd0478.xlsx
+++ b/data/nzd0478/nzd0478.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J617"/>
+  <dimension ref="A1:J620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21073,6 +21073,114 @@
       <c r="J617" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>342.1357142857143</v>
+      </c>
+      <c r="C618" t="n">
+        <v>338.6757142857143</v>
+      </c>
+      <c r="D618" t="n">
+        <v>334.9957142857143</v>
+      </c>
+      <c r="E618" t="n">
+        <v>342.7628571428572</v>
+      </c>
+      <c r="F618" t="n">
+        <v>346.0458823529411</v>
+      </c>
+      <c r="G618" t="n">
+        <v>339.84</v>
+      </c>
+      <c r="H618" t="n">
+        <v>338.5166666666667</v>
+      </c>
+      <c r="I618" t="n">
+        <v>338.02</v>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>341.5942857142857</v>
+      </c>
+      <c r="C619" t="n">
+        <v>336.4842857142857</v>
+      </c>
+      <c r="D619" t="n">
+        <v>332.0842857142857</v>
+      </c>
+      <c r="E619" t="n">
+        <v>340.3071428571428</v>
+      </c>
+      <c r="F619" t="n">
+        <v>338.0705882352942</v>
+      </c>
+      <c r="G619" t="n">
+        <v>337.8566666666667</v>
+      </c>
+      <c r="H619" t="n">
+        <v>336.4522222222222</v>
+      </c>
+      <c r="I619" t="n">
+        <v>336.21</v>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>341.7471428571428</v>
+      </c>
+      <c r="C620" t="n">
+        <v>335.9371428571428</v>
+      </c>
+      <c r="D620" t="n">
+        <v>334.0971428571428</v>
+      </c>
+      <c r="E620" t="n">
+        <v>333.8685714285714</v>
+      </c>
+      <c r="F620" t="n">
+        <v>334.3647058823529</v>
+      </c>
+      <c r="G620" t="n">
+        <v>337.98</v>
+      </c>
+      <c r="H620" t="n">
+        <v>339.6566666666667</v>
+      </c>
+      <c r="I620" t="n">
+        <v>337.16</v>
+      </c>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -21087,7 +21195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B694"/>
+  <dimension ref="A1:B697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28035,6 +28143,36 @@
       </c>
       <c r="B694" t="n">
         <v>0.59</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -28208,28 +28346,28 @@
         <v>0.0359</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.385287889889953</v>
+        <v>-0.380518191787926</v>
       </c>
       <c r="J2" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="K2" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08228244556172404</v>
+        <v>0.08122594276308093</v>
       </c>
       <c r="M2" t="n">
-        <v>6.534628724053351</v>
+        <v>6.515440427502289</v>
       </c>
       <c r="N2" t="n">
-        <v>73.8799208403626</v>
+        <v>73.52157717925843</v>
       </c>
       <c r="O2" t="n">
-        <v>8.595342973980888</v>
+        <v>8.574472414047317</v>
       </c>
       <c r="P2" t="n">
-        <v>347.9454820125799</v>
+        <v>347.8904594024635</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28286,28 +28424,28 @@
         <v>0.0356</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3650027317998222</v>
+        <v>-0.3615625380504739</v>
       </c>
       <c r="J3" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="K3" t="n">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07141604146149416</v>
+        <v>0.0709184887330524</v>
       </c>
       <c r="M3" t="n">
-        <v>6.690525521542437</v>
+        <v>6.666298564373643</v>
       </c>
       <c r="N3" t="n">
-        <v>76.44113979614907</v>
+        <v>76.03316164849892</v>
       </c>
       <c r="O3" t="n">
-        <v>8.743062380890867</v>
+        <v>8.719699630635159</v>
       </c>
       <c r="P3" t="n">
-        <v>343.7131114691446</v>
+        <v>343.6732163391677</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28364,28 +28502,28 @@
         <v>0.0357</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3197000541045283</v>
+        <v>-0.3152634219409649</v>
       </c>
       <c r="J4" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="K4" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03119322625632626</v>
+        <v>0.03066809991213293</v>
       </c>
       <c r="M4" t="n">
-        <v>9.026826756207042</v>
+        <v>8.99465854706192</v>
       </c>
       <c r="N4" t="n">
-        <v>137.9201496576715</v>
+        <v>137.2237615097694</v>
       </c>
       <c r="O4" t="n">
-        <v>11.74394097642148</v>
+        <v>11.71425462886006</v>
       </c>
       <c r="P4" t="n">
-        <v>338.2224741327706</v>
+        <v>338.1702038718576</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28442,28 +28580,28 @@
         <v>0.076</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4361257973046193</v>
+        <v>-0.4291172445469092</v>
       </c>
       <c r="J5" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="K5" t="n">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09892616700058132</v>
+        <v>0.09671095980866107</v>
       </c>
       <c r="M5" t="n">
-        <v>6.854730934111113</v>
+        <v>6.848614491181874</v>
       </c>
       <c r="N5" t="n">
-        <v>75.87219975159603</v>
+        <v>75.7202360200028</v>
       </c>
       <c r="O5" t="n">
-        <v>8.710464956108602</v>
+        <v>8.701737528792902</v>
       </c>
       <c r="P5" t="n">
-        <v>344.2393910737317</v>
+        <v>344.1571619639292</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28520,28 +28658,28 @@
         <v>0.0931</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4231538486677894</v>
+        <v>-0.4151204368213068</v>
       </c>
       <c r="J6" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="K6" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1011139572036988</v>
+        <v>0.09814245020583334</v>
       </c>
       <c r="M6" t="n">
-        <v>6.440489301369133</v>
+        <v>6.444735899012684</v>
       </c>
       <c r="N6" t="n">
-        <v>70.56391964012489</v>
+        <v>70.56315120257563</v>
       </c>
       <c r="O6" t="n">
-        <v>8.40023330867214</v>
+        <v>8.400187569487697</v>
       </c>
       <c r="P6" t="n">
-        <v>343.4830936453352</v>
+        <v>343.3893626227321</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28598,28 +28736,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5526270933536187</v>
+        <v>-0.5457507574556869</v>
       </c>
       <c r="J7" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="K7" t="n">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1779388289586821</v>
+        <v>0.1754562112479612</v>
       </c>
       <c r="M7" t="n">
-        <v>6.117317321220283</v>
+        <v>6.115950802052092</v>
       </c>
       <c r="N7" t="n">
-        <v>63.10463071623307</v>
+        <v>62.93393488860103</v>
       </c>
       <c r="O7" t="n">
-        <v>7.9438423144114</v>
+        <v>7.933091130738448</v>
       </c>
       <c r="P7" t="n">
-        <v>346.9894322926802</v>
+        <v>346.9095034130463</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28676,28 +28814,28 @@
         <v>0.0504</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.540647565728853</v>
+        <v>-0.5337972279955125</v>
       </c>
       <c r="J8" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="K8" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1344674543574123</v>
+        <v>0.1325231133434679</v>
       </c>
       <c r="M8" t="n">
-        <v>6.937427110748137</v>
+        <v>6.930190040136883</v>
       </c>
       <c r="N8" t="n">
-        <v>83.17249136713924</v>
+        <v>82.89001406784284</v>
       </c>
       <c r="O8" t="n">
-        <v>9.119895359440219</v>
+        <v>9.104395315881382</v>
       </c>
       <c r="P8" t="n">
-        <v>346.3690604372728</v>
+        <v>346.2889364318733</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28754,28 +28892,28 @@
         <v>0.0518</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.398379292221094</v>
+        <v>-0.3990475741529596</v>
       </c>
       <c r="J9" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="K9" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07806819869679349</v>
+        <v>0.07910441827314474</v>
       </c>
       <c r="M9" t="n">
-        <v>6.83748886189528</v>
+        <v>6.803173047124859</v>
       </c>
       <c r="N9" t="n">
-        <v>82.47938426238447</v>
+        <v>82.01733393943162</v>
       </c>
       <c r="O9" t="n">
-        <v>9.081816132381478</v>
+        <v>9.056342194254347</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9411803078974</v>
+        <v>347.9490051356294</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28813,7 +28951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J617"/>
+  <dimension ref="A1:J620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57729,6 +57867,162 @@
         </is>
       </c>
     </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>-45.21646021984976,170.88806909715828</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>-45.216805580691556,170.88731907058477</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>-45.21705341340608,170.88649930504877</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>-45.217367749908156,170.8857528489663</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>-45.21785883951176,170.88521609845856</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>-45.218369913765656,170.88469541900878</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>-45.21894662674451,170.88432394639045</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>-45.21952571200687,170.88396207643385</t>
+        </is>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>-45.21645623016552,170.8880651407577</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>-45.21678853183795,170.8873050497708</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>-45.21702953592829,170.8864840511836</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>-45.21734988582806,170.8857344453006</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>-45.217816114649345,170.8851345127491</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>-45.21836153444287,170.88467312338804</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>-45.21893896578563,170.88430000069434</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>-45.21951899521977,170.8839410818845</t>
+        </is>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>-45.216457356540765,170.88806625773617</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>-45.216784275181276,170.88730154913858</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>-45.217046043959016,170.88649459715677</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>-45.217303048462206,170.88568619327748</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>-45.2177962616553,170.88509660233447</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>-45.21836205551013,170.88467450983822</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>-45.21895085717503,170.8843371693665</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>-45.21952252060574,170.88395210112247</t>
+        </is>
+      </c>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0478/nzd0478.xlsx
+++ b/data/nzd0478/nzd0478.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J620"/>
+  <dimension ref="A1:J621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21181,6 +21181,30 @@
       <c r="J620" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:19:47+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr"/>
+      <c r="C621" t="inlineStr"/>
+      <c r="D621" t="n">
+        <v>323.6057142857143</v>
+      </c>
+      <c r="E621" t="n">
+        <v>298.6028571428571</v>
+      </c>
+      <c r="F621" t="inlineStr"/>
+      <c r="G621" t="inlineStr"/>
+      <c r="H621" t="inlineStr"/>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -21195,7 +21219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B697"/>
+  <dimension ref="A1:B698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28173,6 +28197,16 @@
       </c>
       <c r="B697" t="n">
         <v>0.66</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -28349,7 +28383,7 @@
         <v>-0.380518191787926</v>
       </c>
       <c r="J2" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K2" t="n">
         <v>500</v>
@@ -28427,7 +28461,7 @@
         <v>-0.3615625380504739</v>
       </c>
       <c r="J3" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K3" t="n">
         <v>499</v>
@@ -28502,28 +28536,28 @@
         <v>0.0357</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3152634219409649</v>
+        <v>-0.317821453866683</v>
       </c>
       <c r="J4" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K4" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03066809991213293</v>
+        <v>0.03124615877182046</v>
       </c>
       <c r="M4" t="n">
-        <v>8.99465854706192</v>
+        <v>8.990973183309904</v>
       </c>
       <c r="N4" t="n">
-        <v>137.2237615097694</v>
+        <v>137.0426180177662</v>
       </c>
       <c r="O4" t="n">
-        <v>11.71425462886006</v>
+        <v>11.70652032064892</v>
       </c>
       <c r="P4" t="n">
-        <v>338.1702038718576</v>
+        <v>338.2004220274745</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28580,28 +28614,28 @@
         <v>0.076</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4291172445469092</v>
+        <v>-0.4426658618913191</v>
       </c>
       <c r="J5" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K5" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09671095980866107</v>
+        <v>0.09997926844424443</v>
       </c>
       <c r="M5" t="n">
-        <v>6.848614491181874</v>
+        <v>6.902205172210571</v>
       </c>
       <c r="N5" t="n">
-        <v>75.7202360200028</v>
+        <v>77.79809720670437</v>
       </c>
       <c r="O5" t="n">
-        <v>8.701737528792902</v>
+        <v>8.820322964988549</v>
       </c>
       <c r="P5" t="n">
-        <v>344.1571619639292</v>
+        <v>344.3165871043328</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28661,7 +28695,7 @@
         <v>-0.4151204368213068</v>
       </c>
       <c r="J6" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K6" t="n">
         <v>531</v>
@@ -28739,7 +28773,7 @@
         <v>-0.5457507574556869</v>
       </c>
       <c r="J7" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K7" t="n">
         <v>517</v>
@@ -28817,7 +28851,7 @@
         <v>-0.5337972279955125</v>
       </c>
       <c r="J8" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K8" t="n">
         <v>520</v>
@@ -28895,7 +28929,7 @@
         <v>-0.3990475741529596</v>
       </c>
       <c r="J9" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K9" t="n">
         <v>530</v>
@@ -28951,7 +28985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J620"/>
+  <dimension ref="A1:J621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35672,7 +35706,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>-45.218429385711026,170.8848536619002</t>
+          <t>-45.21842938571102,170.8848536619002</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
@@ -51252,7 +51286,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>-45.21835911218407,170.8846666782687</t>
+          <t>-45.218359112184075,170.8846666782687</t>
         </is>
       </c>
       <c r="H480" t="inlineStr">
@@ -53394,7 +53428,7 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>-45.219587313303485,170.88415462336542</t>
+          <t>-45.21958731330348,170.88415462336542</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
@@ -55539,7 +55573,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>-45.21645493536033,170.88806385675446</t>
+          <t>-45.216454935360325,170.88806385675446</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -58023,6 +58057,34 @@
         </is>
       </c>
     </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:19:47+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr"/>
+      <c r="C621" t="inlineStr"/>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>-45.21696000067186,170.8864396294246</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>-45.217046507801655,170.8854219059115</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr"/>
+      <c r="G621" t="inlineStr"/>
+      <c r="H621" t="inlineStr"/>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0478/nzd0478.xlsx
+++ b/data/nzd0478/nzd0478.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J621"/>
+  <dimension ref="A1:J623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21205,6 +21205,72 @@
       <c r="J621" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>328.72</v>
+      </c>
+      <c r="C622" t="n">
+        <v>323.58</v>
+      </c>
+      <c r="D622" t="n">
+        <v>320.21</v>
+      </c>
+      <c r="E622" t="n">
+        <v>320.09</v>
+      </c>
+      <c r="F622" t="n">
+        <v>324.0605882352941</v>
+      </c>
+      <c r="G622" t="n">
+        <v>328.02</v>
+      </c>
+      <c r="H622" t="n">
+        <v>326.1066666666667</v>
+      </c>
+      <c r="I622" t="n">
+        <v>327.56</v>
+      </c>
+      <c r="J622" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr"/>
+      <c r="C623" t="n">
+        <v>355.9885714285714</v>
+      </c>
+      <c r="D623" t="inlineStr"/>
+      <c r="E623" t="inlineStr"/>
+      <c r="F623" t="n">
+        <v>325.2764705882353</v>
+      </c>
+      <c r="G623" t="n">
+        <v>333.9933333333333</v>
+      </c>
+      <c r="H623" t="n">
+        <v>317.1611111111111</v>
+      </c>
+      <c r="I623" t="n">
+        <v>325.33</v>
+      </c>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -21219,7 +21285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B698"/>
+  <dimension ref="A1:B700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28207,6 +28273,26 @@
       </c>
       <c r="B698" t="n">
         <v>0.43</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -28380,28 +28466,28 @@
         <v>0.0359</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.380518191787926</v>
+        <v>-0.3844467344674793</v>
       </c>
       <c r="J2" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K2" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08122594276308093</v>
+        <v>0.08289518505553883</v>
       </c>
       <c r="M2" t="n">
-        <v>6.515440427502289</v>
+        <v>6.52323872671425</v>
       </c>
       <c r="N2" t="n">
-        <v>73.52157717925843</v>
+        <v>73.54868551215472</v>
       </c>
       <c r="O2" t="n">
-        <v>8.574472414047317</v>
+        <v>8.576053026430907</v>
       </c>
       <c r="P2" t="n">
-        <v>347.8904594024635</v>
+        <v>347.9358979684934</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28458,28 +28544,28 @@
         <v>0.0356</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3615625380504739</v>
+        <v>-0.3569613390635664</v>
       </c>
       <c r="J3" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K3" t="n">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0709184887330524</v>
+        <v>0.06878320509399705</v>
       </c>
       <c r="M3" t="n">
-        <v>6.666298564373643</v>
+        <v>6.704064415188959</v>
       </c>
       <c r="N3" t="n">
-        <v>76.03316164849892</v>
+        <v>76.894830467465</v>
       </c>
       <c r="O3" t="n">
-        <v>8.719699630635159</v>
+        <v>8.768969749489674</v>
       </c>
       <c r="P3" t="n">
-        <v>343.6732163391677</v>
+        <v>343.6196131300198</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28536,28 +28622,28 @@
         <v>0.0357</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.317821453866683</v>
+        <v>-0.3216938434391645</v>
       </c>
       <c r="J4" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K4" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03124615877182046</v>
+        <v>0.03206014625228815</v>
       </c>
       <c r="M4" t="n">
-        <v>8.990973183309904</v>
+        <v>8.994109361004933</v>
       </c>
       <c r="N4" t="n">
-        <v>137.0426180177662</v>
+        <v>136.9642958998545</v>
       </c>
       <c r="O4" t="n">
-        <v>11.70652032064892</v>
+        <v>11.70317460776582</v>
       </c>
       <c r="P4" t="n">
-        <v>338.2004220274745</v>
+        <v>338.2461722155821</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28614,28 +28700,28 @@
         <v>0.076</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4426658618913191</v>
+        <v>-0.4476733675016718</v>
       </c>
       <c r="J5" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K5" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09997926844424443</v>
+        <v>0.101993073005097</v>
       </c>
       <c r="M5" t="n">
-        <v>6.902205172210571</v>
+        <v>6.913856145706537</v>
       </c>
       <c r="N5" t="n">
-        <v>77.79809720670437</v>
+        <v>77.95825233437533</v>
       </c>
       <c r="O5" t="n">
-        <v>8.820322964988549</v>
+        <v>8.829397053840955</v>
       </c>
       <c r="P5" t="n">
-        <v>344.3165871043328</v>
+        <v>344.3755169806678</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28692,28 +28778,28 @@
         <v>0.0931</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4151204368213068</v>
+        <v>-0.4213336985135334</v>
       </c>
       <c r="J6" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K6" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09814245020583334</v>
+        <v>0.1011497103284389</v>
       </c>
       <c r="M6" t="n">
-        <v>6.444735899012684</v>
+        <v>6.448992474920349</v>
       </c>
       <c r="N6" t="n">
-        <v>70.56315120257563</v>
+        <v>70.53821264857881</v>
       </c>
       <c r="O6" t="n">
-        <v>8.400187569487697</v>
+        <v>8.398703033717695</v>
       </c>
       <c r="P6" t="n">
-        <v>343.3893626227321</v>
+        <v>343.4621226309957</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28770,28 +28856,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5457507574556869</v>
+        <v>-0.5471926474418871</v>
       </c>
       <c r="J7" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K7" t="n">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1754562112479612</v>
+        <v>0.1771824009670206</v>
       </c>
       <c r="M7" t="n">
-        <v>6.115950802052092</v>
+        <v>6.103793948017638</v>
       </c>
       <c r="N7" t="n">
-        <v>62.93393488860103</v>
+        <v>62.73864863630167</v>
       </c>
       <c r="O7" t="n">
-        <v>7.933091130738448</v>
+        <v>7.920773234748086</v>
       </c>
       <c r="P7" t="n">
-        <v>346.9095034130463</v>
+        <v>346.9263062077633</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28848,28 +28934,28 @@
         <v>0.0504</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5337972279955125</v>
+        <v>-0.5424249961186768</v>
       </c>
       <c r="J8" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K8" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1325231133434679</v>
+        <v>0.1363722068079739</v>
       </c>
       <c r="M8" t="n">
-        <v>6.930190040136883</v>
+        <v>6.945420325936698</v>
       </c>
       <c r="N8" t="n">
-        <v>82.89001406784284</v>
+        <v>83.0981226868568</v>
       </c>
       <c r="O8" t="n">
-        <v>9.104395315881382</v>
+        <v>9.115817170547947</v>
       </c>
       <c r="P8" t="n">
-        <v>346.2889364318733</v>
+        <v>346.3901805990462</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28926,28 +29012,28 @@
         <v>0.0518</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3990475741529596</v>
+        <v>-0.4078416716837152</v>
       </c>
       <c r="J9" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K9" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07910441827314474</v>
+        <v>0.08245681457328058</v>
       </c>
       <c r="M9" t="n">
-        <v>6.803173047124859</v>
+        <v>6.819385815208057</v>
       </c>
       <c r="N9" t="n">
-        <v>82.01733393943162</v>
+        <v>82.18109448301657</v>
       </c>
       <c r="O9" t="n">
-        <v>9.056342194254347</v>
+        <v>9.065378893516618</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9490051356294</v>
+        <v>348.0521940787309</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28985,7 +29071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J621"/>
+  <dimension ref="A1:J623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58085,6 +58171,98 @@
         </is>
       </c>
     </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>-45.21636136196304,170.88797106418525</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>-45.21668813917497,170.88722248800048</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>-45.21693215141637,170.88642183829657</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>-45.217202816226575,170.8855829339979</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>-45.21774106081406,170.88499119346918</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>-45.21831997575569,170.88456254470208</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>-45.21890057432941,170.88418000166732</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>-45.21948689560493,170.88384074888708</t>
+        </is>
+      </c>
+      <c r="J622" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr"/>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>-45.216940271023844,170.88742983896168</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr"/>
+      <c r="E623" t="inlineStr"/>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>-45.21774757449932,170.88500363166847</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>-45.21834521235487,170.8846296937863</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>-45.218867378051826,170.88407624149914</t>
+        </is>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>-45.219478620198906,170.8838148827111</t>
+        </is>
+      </c>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0478/nzd0478.xlsx
+++ b/data/nzd0478/nzd0478.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J623"/>
+  <dimension ref="A1:J627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21271,6 +21271,146 @@
       <c r="J623" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:08+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>329.9985714285714</v>
+      </c>
+      <c r="C624" t="n">
+        <v>322.1985714285714</v>
+      </c>
+      <c r="D624" t="n">
+        <v>315.1585714285715</v>
+      </c>
+      <c r="E624" t="n">
+        <v>329.7542857142857</v>
+      </c>
+      <c r="F624" t="n">
+        <v>332.2176470588236</v>
+      </c>
+      <c r="G624" t="n">
+        <v>332.3133333333333</v>
+      </c>
+      <c r="H624" t="n">
+        <v>323.4844444444445</v>
+      </c>
+      <c r="I624" t="n">
+        <v>329.49</v>
+      </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>332.4557142857143</v>
+      </c>
+      <c r="C625" t="n">
+        <v>327.0957142857143</v>
+      </c>
+      <c r="D625" t="n">
+        <v>322.3957142857143</v>
+      </c>
+      <c r="E625" t="n">
+        <v>333.9228571428571</v>
+      </c>
+      <c r="F625" t="n">
+        <v>342.9382352941176</v>
+      </c>
+      <c r="G625" t="n">
+        <v>336.0966666666667</v>
+      </c>
+      <c r="H625" t="n">
+        <v>334.6088888888889</v>
+      </c>
+      <c r="I625" t="n">
+        <v>331.35</v>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>327.5028571428572</v>
+      </c>
+      <c r="C626" t="n">
+        <v>321.1528571428572</v>
+      </c>
+      <c r="D626" t="n">
+        <v>317.1328571428572</v>
+      </c>
+      <c r="E626" t="n">
+        <v>313.3814285714286</v>
+      </c>
+      <c r="F626" t="n">
+        <v>319.1235294117647</v>
+      </c>
+      <c r="G626" t="n">
+        <v>326.6633333333333</v>
+      </c>
+      <c r="H626" t="n">
+        <v>339.0277777777778</v>
+      </c>
+      <c r="I626" t="n">
+        <v>340.35</v>
+      </c>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:15+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr"/>
+      <c r="C627" t="inlineStr"/>
+      <c r="D627" t="n">
+        <v>315.18</v>
+      </c>
+      <c r="E627" t="n">
+        <v>324.25</v>
+      </c>
+      <c r="F627" t="n">
+        <v>334.9152941176471</v>
+      </c>
+      <c r="G627" t="n">
+        <v>340.1733333333333</v>
+      </c>
+      <c r="H627" t="n">
+        <v>344.4011111111111</v>
+      </c>
+      <c r="I627" t="n">
+        <v>348.81</v>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -21285,7 +21425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B700"/>
+  <dimension ref="A1:B705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28293,6 +28433,56 @@
       </c>
       <c r="B700" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>-0.49</v>
       </c>
     </row>
   </sheetData>
@@ -28466,28 +28656,28 @@
         <v>0.0359</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3844467344674793</v>
+        <v>-0.3944379350322192</v>
       </c>
       <c r="J2" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K2" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08289518505553883</v>
+        <v>0.08739895075318238</v>
       </c>
       <c r="M2" t="n">
-        <v>6.52323872671425</v>
+        <v>6.536573595036756</v>
       </c>
       <c r="N2" t="n">
-        <v>73.54868551215472</v>
+        <v>73.51010934003523</v>
       </c>
       <c r="O2" t="n">
-        <v>8.576053026430907</v>
+        <v>8.573803668153081</v>
       </c>
       <c r="P2" t="n">
-        <v>347.9358979684934</v>
+        <v>348.0518712001154</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28544,28 +28734,28 @@
         <v>0.0356</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3569613390635664</v>
+        <v>-0.3706265645036868</v>
       </c>
       <c r="J3" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K3" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06878320509399705</v>
+        <v>0.07391770919763052</v>
       </c>
       <c r="M3" t="n">
-        <v>6.704064415188959</v>
+        <v>6.729233660667953</v>
       </c>
       <c r="N3" t="n">
-        <v>76.894830467465</v>
+        <v>77.17244407411941</v>
       </c>
       <c r="O3" t="n">
-        <v>8.768969749489674</v>
+        <v>8.784784805225419</v>
       </c>
       <c r="P3" t="n">
-        <v>343.6196131300198</v>
+        <v>343.7791038252851</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28622,28 +28812,28 @@
         <v>0.0357</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3216938434391645</v>
+        <v>-0.3411547749215259</v>
       </c>
       <c r="J4" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K4" t="n">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03206014625228815</v>
+        <v>0.03611529495353516</v>
       </c>
       <c r="M4" t="n">
-        <v>8.994109361004933</v>
+        <v>9.027039246374819</v>
       </c>
       <c r="N4" t="n">
-        <v>136.9642958998545</v>
+        <v>137.1402324622249</v>
       </c>
       <c r="O4" t="n">
-        <v>11.70317460776582</v>
+        <v>11.71068881245783</v>
       </c>
       <c r="P4" t="n">
-        <v>338.2461722155821</v>
+        <v>338.4770315108804</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28700,28 +28890,28 @@
         <v>0.076</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4476733675016718</v>
+        <v>-0.4592274047201315</v>
       </c>
       <c r="J5" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K5" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="L5" t="n">
-        <v>0.101993073005097</v>
+        <v>0.1071012203254704</v>
       </c>
       <c r="M5" t="n">
-        <v>6.913856145706537</v>
+        <v>6.923496272578437</v>
       </c>
       <c r="N5" t="n">
-        <v>77.95825233437533</v>
+        <v>78.22435024279174</v>
       </c>
       <c r="O5" t="n">
-        <v>8.829397053840955</v>
+        <v>8.844453077652215</v>
       </c>
       <c r="P5" t="n">
-        <v>344.3755169806678</v>
+        <v>344.5121443668158</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28778,28 +28968,28 @@
         <v>0.0931</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4213336985135334</v>
+        <v>-0.4217521069106415</v>
       </c>
       <c r="J6" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K6" t="n">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1011497103284389</v>
+        <v>0.1019317071806654</v>
       </c>
       <c r="M6" t="n">
-        <v>6.448992474920349</v>
+        <v>6.450232848451932</v>
       </c>
       <c r="N6" t="n">
-        <v>70.53821264857881</v>
+        <v>70.55951564595584</v>
       </c>
       <c r="O6" t="n">
-        <v>8.398703033717695</v>
+        <v>8.399971169352657</v>
       </c>
       <c r="P6" t="n">
-        <v>343.4621226309957</v>
+        <v>343.4671156841509</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28856,28 +29046,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5471926474418871</v>
+        <v>-0.5455644469571647</v>
       </c>
       <c r="J7" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K7" t="n">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1771824009670206</v>
+        <v>0.1779885669944135</v>
       </c>
       <c r="M7" t="n">
-        <v>6.103793948017638</v>
+        <v>6.090331262305606</v>
       </c>
       <c r="N7" t="n">
-        <v>62.73864863630167</v>
+        <v>62.45652061641142</v>
       </c>
       <c r="O7" t="n">
-        <v>7.920773234748086</v>
+        <v>7.902943794334578</v>
       </c>
       <c r="P7" t="n">
-        <v>346.9263062077633</v>
+        <v>346.9072261602656</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28934,28 +29124,28 @@
         <v>0.0504</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5424249961186768</v>
+        <v>-0.5376683745820394</v>
       </c>
       <c r="J8" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K8" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1363722068079739</v>
+        <v>0.1352857534983731</v>
       </c>
       <c r="M8" t="n">
-        <v>6.945420325936698</v>
+        <v>6.948943930449206</v>
       </c>
       <c r="N8" t="n">
-        <v>83.0981226868568</v>
+        <v>82.98587139695535</v>
       </c>
       <c r="O8" t="n">
-        <v>9.115817170547947</v>
+        <v>9.109658138314266</v>
       </c>
       <c r="P8" t="n">
-        <v>346.3901805990462</v>
+        <v>346.3340165104398</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29012,28 +29202,28 @@
         <v>0.0518</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4078416716837152</v>
+        <v>-0.407807762486877</v>
       </c>
       <c r="J9" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K9" t="n">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08245681457328058</v>
+        <v>0.08313684727802884</v>
       </c>
       <c r="M9" t="n">
-        <v>6.819385815208057</v>
+        <v>6.821407346546501</v>
       </c>
       <c r="N9" t="n">
-        <v>82.18109448301657</v>
+        <v>82.01316836216752</v>
       </c>
       <c r="O9" t="n">
-        <v>9.065378893516618</v>
+        <v>9.056112210113538</v>
       </c>
       <c r="P9" t="n">
-        <v>348.0521940787309</v>
+        <v>348.0516232987255</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29071,7 +29261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J623"/>
+  <dimension ref="A1:J627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58263,6 +58453,206 @@
         </is>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:08+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>-45.216370783519935,170.8879804071066</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>-45.21667739194426,170.88721364962137</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>-45.21689072315435,170.88639537243452</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>-45.21727311909473,170.88565535998677</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>-45.21778475951827,170.88507463837627</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>-45.21833811456525,170.88461080810026</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>-45.21889084347137,170.88414958630275</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>-45.21949405772301,170.88386313531464</t>
+        </is>
+      </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>-45.21638888975016,170.88799836222665</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>-45.21671549070756,170.88724498155304</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>-45.21695007710488,170.88643328988314</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>-45.21730344336354,170.8856866001058</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>-45.217842191380974,170.8851843078182</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>-45.218354098670524,170.88465333837223</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>-45.21893212534512,170.88427861969356</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>-45.21950096007108,170.88388470980468</t>
+        </is>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>-45.21635239306128,170.88796217014453</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>-45.216669256501355,170.88720695914424</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>-45.21690691485699,170.88640571627093</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>-45.217154014683054,170.88553265879628</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>-45.2177146121502,170.8849406885123</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>-45.21831424400039,170.88454729377452</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>-45.21894852342895,170.88432987482</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>-45.219534358473105,170.88398910257385</t>
+        </is>
+      </c>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:15+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr"/>
+      <c r="C627" t="inlineStr"/>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>-45.21689089889644,170.8863954847048</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>-45.21723307816125,170.88561410980466</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>-45.21779921124376,170.88510223473722</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>-45.218371322054786,170.8846991661726</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>-45.21896846333659,170.884392200682</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>-45.21956575288582,170.88408723189093</t>
+        </is>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0478/nzd0478.xlsx
+++ b/data/nzd0478/nzd0478.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J627"/>
+  <dimension ref="A1:J630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21411,6 +21411,100 @@
       <c r="J627" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:17+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr"/>
+      <c r="C628" t="inlineStr"/>
+      <c r="D628" t="inlineStr"/>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="n">
+        <v>372.6711764705883</v>
+      </c>
+      <c r="G628" t="inlineStr"/>
+      <c r="H628" t="inlineStr"/>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>337.8228571428572</v>
+      </c>
+      <c r="C629" t="n">
+        <v>331.7228571428572</v>
+      </c>
+      <c r="D629" t="n">
+        <v>328.0828571428572</v>
+      </c>
+      <c r="E629" t="n">
+        <v>324.2614285714285</v>
+      </c>
+      <c r="F629" t="n">
+        <v>322.7752941176471</v>
+      </c>
+      <c r="G629" t="n">
+        <v>326.8633333333333</v>
+      </c>
+      <c r="H629" t="n">
+        <v>337.9877777777777</v>
+      </c>
+      <c r="I629" t="n">
+        <v>339.59</v>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>338.4485714285714</v>
+      </c>
+      <c r="C630" t="n">
+        <v>332.5685714285714</v>
+      </c>
+      <c r="D630" t="n">
+        <v>333.6885714285714</v>
+      </c>
+      <c r="E630" t="n">
+        <v>325.6742857142857</v>
+      </c>
+      <c r="F630" t="n">
+        <v>324.5035294117647</v>
+      </c>
+      <c r="G630" t="n">
+        <v>326.95</v>
+      </c>
+      <c r="H630" t="n">
+        <v>329.4666666666667</v>
+      </c>
+      <c r="I630" t="n">
+        <v>330.29</v>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -21425,7 +21519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B705"/>
+  <dimension ref="A1:B710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28483,6 +28577,56 @@
       </c>
       <c r="B705" t="n">
         <v>-0.49</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>-0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -28656,28 +28800,28 @@
         <v>0.0359</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3944379350322192</v>
+        <v>-0.3941711408728559</v>
       </c>
       <c r="J2" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K2" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08739895075318238</v>
+        <v>0.08792769955113688</v>
       </c>
       <c r="M2" t="n">
-        <v>6.536573595036756</v>
+        <v>6.5118870736039</v>
       </c>
       <c r="N2" t="n">
-        <v>73.51010934003523</v>
+        <v>73.22036482128077</v>
       </c>
       <c r="O2" t="n">
-        <v>8.573803668153081</v>
+        <v>8.556889903538597</v>
       </c>
       <c r="P2" t="n">
-        <v>348.0518712001154</v>
+        <v>348.0487595271311</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28734,28 +28878,28 @@
         <v>0.0356</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3706265645036868</v>
+        <v>-0.3723046458651244</v>
       </c>
       <c r="J3" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K3" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07391770919763052</v>
+        <v>0.07507564144792422</v>
       </c>
       <c r="M3" t="n">
-        <v>6.729233660667953</v>
+        <v>6.71057475394424</v>
       </c>
       <c r="N3" t="n">
-        <v>77.17244407411941</v>
+        <v>76.8839948517235</v>
       </c>
       <c r="O3" t="n">
-        <v>8.784784805225419</v>
+        <v>8.768351889136493</v>
       </c>
       <c r="P3" t="n">
-        <v>343.7791038252851</v>
+        <v>343.7987629307298</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28812,28 +28956,28 @@
         <v>0.0357</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3411547749215259</v>
+        <v>-0.3401658560810002</v>
       </c>
       <c r="J4" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K4" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03611529495353516</v>
+        <v>0.03615755591776992</v>
       </c>
       <c r="M4" t="n">
-        <v>9.027039246374819</v>
+        <v>9.003449881799648</v>
       </c>
       <c r="N4" t="n">
-        <v>137.1402324622249</v>
+        <v>136.6647473825791</v>
       </c>
       <c r="O4" t="n">
-        <v>11.71068881245783</v>
+        <v>11.69036985653487</v>
       </c>
       <c r="P4" t="n">
-        <v>338.4770315108804</v>
+        <v>338.4652364885666</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28890,28 +29034,28 @@
         <v>0.076</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4592274047201315</v>
+        <v>-0.46510230192828</v>
       </c>
       <c r="J5" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K5" t="n">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1071012203254704</v>
+        <v>0.1099923835834596</v>
       </c>
       <c r="M5" t="n">
-        <v>6.923496272578437</v>
+        <v>6.926780803731136</v>
       </c>
       <c r="N5" t="n">
-        <v>78.22435024279174</v>
+        <v>78.14956765810365</v>
       </c>
       <c r="O5" t="n">
-        <v>8.844453077652215</v>
+        <v>8.840224412202648</v>
       </c>
       <c r="P5" t="n">
-        <v>344.5121443668158</v>
+        <v>344.5818026707011</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28968,28 +29112,28 @@
         <v>0.0931</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4217521069106415</v>
+        <v>-0.4132902530434951</v>
       </c>
       <c r="J6" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K6" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1019317071806654</v>
+        <v>0.09522822716049806</v>
       </c>
       <c r="M6" t="n">
-        <v>6.450232848451932</v>
+        <v>6.524070546725679</v>
       </c>
       <c r="N6" t="n">
-        <v>70.55951564595584</v>
+        <v>73.44131792016509</v>
       </c>
       <c r="O6" t="n">
-        <v>8.399971169352657</v>
+        <v>8.569791007963094</v>
       </c>
       <c r="P6" t="n">
-        <v>343.4671156841509</v>
+        <v>343.367475680099</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29046,28 +29190,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5455644469571647</v>
+        <v>-0.5501065581041549</v>
       </c>
       <c r="J7" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K7" t="n">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1779885669944135</v>
+        <v>0.1812018801973734</v>
       </c>
       <c r="M7" t="n">
-        <v>6.090331262305606</v>
+        <v>6.088782948490052</v>
       </c>
       <c r="N7" t="n">
-        <v>62.45652061641142</v>
+        <v>62.34714942147561</v>
       </c>
       <c r="O7" t="n">
-        <v>7.902943794334578</v>
+        <v>7.896021113287097</v>
       </c>
       <c r="P7" t="n">
-        <v>346.9072261602656</v>
+        <v>346.9605849645896</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29124,28 +29268,28 @@
         <v>0.0504</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5376683745820394</v>
+        <v>-0.5366249777794796</v>
       </c>
       <c r="J8" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K8" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1352857534983731</v>
+        <v>0.1355777202175095</v>
       </c>
       <c r="M8" t="n">
-        <v>6.948943930449206</v>
+        <v>6.938647857262336</v>
       </c>
       <c r="N8" t="n">
-        <v>82.98587139695535</v>
+        <v>82.74673726755967</v>
       </c>
       <c r="O8" t="n">
-        <v>9.109658138314266</v>
+        <v>9.0965233615684</v>
       </c>
       <c r="P8" t="n">
-        <v>346.3340165104398</v>
+        <v>346.3217209969541</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29202,28 +29346,28 @@
         <v>0.0518</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.407807762486877</v>
+        <v>-0.40976755000001</v>
       </c>
       <c r="J9" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K9" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08313684727802884</v>
+        <v>0.08433163336540506</v>
       </c>
       <c r="M9" t="n">
-        <v>6.821407346546501</v>
+        <v>6.813310358550749</v>
       </c>
       <c r="N9" t="n">
-        <v>82.01316836216752</v>
+        <v>81.81186793704423</v>
       </c>
       <c r="O9" t="n">
-        <v>9.056112210113538</v>
+        <v>9.044991317687609</v>
       </c>
       <c r="P9" t="n">
-        <v>348.0516232987255</v>
+        <v>348.0748218162881</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29261,7 +29405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J627"/>
+  <dimension ref="A1:J630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58653,6 +58797,134 @@
         </is>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:17+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr"/>
+      <c r="C628" t="inlineStr"/>
+      <c r="D628" t="inlineStr"/>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>-45.21800147484964,170.88548847093742</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr"/>
+      <c r="H628" t="inlineStr"/>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>-45.216428439221644,170.88803758167637</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>-45.216751488919016,170.88727458606198</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>-45.216996719038434,170.88646308649524</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>-45.21723316129843,170.88561419545252</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>-45.217734175276945,170.88497804520645</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>-45.21831508897673,170.8845495420683</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>-45.218944664088134,170.8843178117551</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>-45.21953153816721,170.88398028717964</t>
+        </is>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>-45.21643304999233,170.88804215397667</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>-45.216758068399926,170.8872799969549</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>-45.21704269314519,170.88649245652581</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>-45.21724343913087,170.88562478367186</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>-45.21774343372422,170.8849957246561</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>-45.218315455133116,170.88455051632897</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>-45.21891304301052,170.88421897459065</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>-45.21949702647536,170.88387241466452</t>
+        </is>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0478/nzd0478.xlsx
+++ b/data/nzd0478/nzd0478.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J630"/>
+  <dimension ref="A1:J635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21505,6 +21505,184 @@
       <c r="J630" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>339.7571428571428</v>
+      </c>
+      <c r="C631" t="n">
+        <v>337.7171428571428</v>
+      </c>
+      <c r="D631" t="n">
+        <v>326.5971428571428</v>
+      </c>
+      <c r="E631" t="n">
+        <v>328.5285714285715</v>
+      </c>
+      <c r="F631" t="n">
+        <v>340.1176470588235</v>
+      </c>
+      <c r="G631" t="n">
+        <v>331.9133333333333</v>
+      </c>
+      <c r="H631" t="n">
+        <v>332.0711111111111</v>
+      </c>
+      <c r="I631" t="n">
+        <v>340.22</v>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>339.6728571428571</v>
+      </c>
+      <c r="C632" t="n">
+        <v>336.4428571428572</v>
+      </c>
+      <c r="D632" t="n">
+        <v>331.9628571428572</v>
+      </c>
+      <c r="E632" t="n">
+        <v>324.4014285714285</v>
+      </c>
+      <c r="F632" t="n">
+        <v>328.1317647058824</v>
+      </c>
+      <c r="G632" t="n">
+        <v>328.2966666666667</v>
+      </c>
+      <c r="H632" t="n">
+        <v>330.9622222222222</v>
+      </c>
+      <c r="I632" t="n">
+        <v>335.38</v>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>334.9028571428572</v>
+      </c>
+      <c r="C633" t="n">
+        <v>327.6828571428572</v>
+      </c>
+      <c r="D633" t="n">
+        <v>324.5028571428572</v>
+      </c>
+      <c r="E633" t="n">
+        <v>339.5214285714285</v>
+      </c>
+      <c r="F633" t="n">
+        <v>333.325294117647</v>
+      </c>
+      <c r="G633" t="n">
+        <v>335.97</v>
+      </c>
+      <c r="H633" t="n">
+        <v>325.2433333333333</v>
+      </c>
+      <c r="I633" t="n">
+        <v>338.58</v>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>343.4985714285714</v>
+      </c>
+      <c r="C634" t="n">
+        <v>334.0785714285714</v>
+      </c>
+      <c r="D634" t="n">
+        <v>328.7385714285714</v>
+      </c>
+      <c r="E634" t="n">
+        <v>327.1342857142857</v>
+      </c>
+      <c r="F634" t="n">
+        <v>334.1082352941176</v>
+      </c>
+      <c r="G634" t="n">
+        <v>328.2333333333333</v>
+      </c>
+      <c r="H634" t="n">
+        <v>323.1511111111111</v>
+      </c>
+      <c r="I634" t="n">
+        <v>324.86</v>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:40+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr"/>
+      <c r="C635" t="n">
+        <v>330.0514285714286</v>
+      </c>
+      <c r="D635" t="n">
+        <v>329.9914285714286</v>
+      </c>
+      <c r="E635" t="n">
+        <v>334.6957142857143</v>
+      </c>
+      <c r="F635" t="n">
+        <v>331.1976470588235</v>
+      </c>
+      <c r="G635" t="n">
+        <v>321.39</v>
+      </c>
+      <c r="H635" t="n">
+        <v>328.0766666666667</v>
+      </c>
+      <c r="I635" t="n">
+        <v>329.96</v>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -21519,7 +21697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B710"/>
+  <dimension ref="A1:B717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28627,6 +28805,76 @@
       </c>
       <c r="B710" t="n">
         <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>-0.33</v>
       </c>
     </row>
   </sheetData>
@@ -28800,28 +29048,28 @@
         <v>0.0359</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3941711408728559</v>
+        <v>-0.3914397842941227</v>
       </c>
       <c r="J2" t="n">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="K2" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08792769955113688</v>
+        <v>0.08797795797841668</v>
       </c>
       <c r="M2" t="n">
-        <v>6.5118870736039</v>
+        <v>6.483850962774376</v>
       </c>
       <c r="N2" t="n">
-        <v>73.22036482128077</v>
+        <v>72.74051999589845</v>
       </c>
       <c r="O2" t="n">
-        <v>8.556889903538597</v>
+        <v>8.528805308828339</v>
       </c>
       <c r="P2" t="n">
-        <v>348.0487595271311</v>
+        <v>348.0168108165474</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28878,28 +29126,28 @@
         <v>0.0356</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3723046458651244</v>
+        <v>-0.3741761365121098</v>
       </c>
       <c r="J3" t="n">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="K3" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07507564144792422</v>
+        <v>0.07703188164728469</v>
       </c>
       <c r="M3" t="n">
-        <v>6.71057475394424</v>
+        <v>6.677027275349702</v>
       </c>
       <c r="N3" t="n">
-        <v>76.8839948517235</v>
+        <v>76.27998301052683</v>
       </c>
       <c r="O3" t="n">
-        <v>8.768351889136493</v>
+        <v>8.733841251736079</v>
       </c>
       <c r="P3" t="n">
-        <v>343.7987629307298</v>
+        <v>343.8208516973158</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28956,28 +29204,28 @@
         <v>0.0357</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3401658560810002</v>
+        <v>-0.3425512327734501</v>
       </c>
       <c r="J4" t="n">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="K4" t="n">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03615755591776992</v>
+        <v>0.0372709487485634</v>
       </c>
       <c r="M4" t="n">
-        <v>9.003449881799648</v>
+        <v>8.943018287250426</v>
       </c>
       <c r="N4" t="n">
-        <v>136.6647473825791</v>
+        <v>135.4803869276768</v>
       </c>
       <c r="O4" t="n">
-        <v>11.69036985653487</v>
+        <v>11.63960424274283</v>
       </c>
       <c r="P4" t="n">
-        <v>338.4652364885666</v>
+        <v>338.493724187132</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29034,28 +29282,28 @@
         <v>0.076</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.46510230192828</v>
+        <v>-0.468142838589215</v>
       </c>
       <c r="J5" t="n">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="K5" t="n">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1099923835834596</v>
+        <v>0.1126703085350865</v>
       </c>
       <c r="M5" t="n">
-        <v>6.926780803731136</v>
+        <v>6.91242329467126</v>
       </c>
       <c r="N5" t="n">
-        <v>78.14956765810365</v>
+        <v>77.73302003301389</v>
       </c>
       <c r="O5" t="n">
-        <v>8.840224412202648</v>
+        <v>8.816633146105938</v>
       </c>
       <c r="P5" t="n">
-        <v>344.5818026707011</v>
+        <v>344.6179314661387</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29112,28 +29360,28 @@
         <v>0.0931</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4132902530434951</v>
+        <v>-0.4118605443643153</v>
       </c>
       <c r="J6" t="n">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="K6" t="n">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09522822716049806</v>
+        <v>0.0959780460038121</v>
       </c>
       <c r="M6" t="n">
-        <v>6.524070546725679</v>
+        <v>6.493242932538736</v>
       </c>
       <c r="N6" t="n">
-        <v>73.44131792016509</v>
+        <v>72.91602990561604</v>
       </c>
       <c r="O6" t="n">
-        <v>8.569791007963094</v>
+        <v>8.539088353308919</v>
       </c>
       <c r="P6" t="n">
-        <v>343.367475680099</v>
+        <v>343.3505943062855</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29190,28 +29438,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5501065581041549</v>
+        <v>-0.5567569715955921</v>
       </c>
       <c r="J7" t="n">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="K7" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1812018801973734</v>
+        <v>0.1867300444375066</v>
       </c>
       <c r="M7" t="n">
-        <v>6.088782948490052</v>
+        <v>6.075311908551405</v>
       </c>
       <c r="N7" t="n">
-        <v>62.34714942147561</v>
+        <v>62.08755302485834</v>
       </c>
       <c r="O7" t="n">
-        <v>7.896021113287097</v>
+        <v>7.879565535285454</v>
       </c>
       <c r="P7" t="n">
-        <v>346.9605849645896</v>
+        <v>347.0391074654992</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29268,28 +29516,28 @@
         <v>0.0504</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5366249777794796</v>
+        <v>-0.5451511950187681</v>
       </c>
       <c r="J8" t="n">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="K8" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1355777202175095</v>
+        <v>0.1410770473211254</v>
       </c>
       <c r="M8" t="n">
-        <v>6.938647857262336</v>
+        <v>6.915067983287641</v>
       </c>
       <c r="N8" t="n">
-        <v>82.74673726755967</v>
+        <v>82.25604802203001</v>
       </c>
       <c r="O8" t="n">
-        <v>9.0965233615684</v>
+        <v>9.06951200572721</v>
       </c>
       <c r="P8" t="n">
-        <v>346.3217209969541</v>
+        <v>346.4229467719792</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29346,28 +29594,28 @@
         <v>0.0518</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.40976755000001</v>
+        <v>-0.4166290711139525</v>
       </c>
       <c r="J9" t="n">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="K9" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08433163336540506</v>
+        <v>0.08796411419249817</v>
       </c>
       <c r="M9" t="n">
-        <v>6.813310358550749</v>
+        <v>6.798646466838737</v>
       </c>
       <c r="N9" t="n">
-        <v>81.81186793704423</v>
+        <v>81.47080233170549</v>
       </c>
       <c r="O9" t="n">
-        <v>9.044991317687609</v>
+        <v>9.026117788490547</v>
       </c>
       <c r="P9" t="n">
-        <v>348.0748218162881</v>
+        <v>348.1563526101449</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29405,7 +29653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J630"/>
+  <dimension ref="A1:J635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58925,6 +59173,262 @@
         </is>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>-45.21644269260805,170.8880517161413</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>-45.21679812320754,170.88731293762012</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>-45.2169845342587,170.88645530239708</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>-45.21726420263582,170.8856461742418</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>-45.21782708105989,170.8851554537514</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>-45.21833642461488,170.88460631150906</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>-45.218922707878704,170.88424918377336</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>-45.21953387605241,170.88398759467742</t>
+        </is>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>-45.21644207152256,170.88805110023756</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>-45.21678820953235,170.88730478470984</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>-45.21702854005701,170.88648341498242</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>-45.217234179728784,170.88561524463893</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>-45.217762870782614,170.88503284068764</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>-45.2183211446392,170.88456565484245</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>-45.21891859288884,170.88423632167124</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>-45.21951591514487,170.88393145455143</t>
+        </is>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>-45.21640692228957,170.88801624428476</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>-45.21672005855757,170.88724873809718</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>-45.2169673584049,170.886444329818</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>-45.21734417015321,170.8857285569865</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>-45.21779069336098,170.88508596937058</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>-45.21835356352012,170.8846519144508</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>-45.21889737056898,170.884169987794</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>-45.21952779012809,170.88396857198603</t>
+        </is>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>-45.216470262484414,170.88807905601604</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>-45.21676981588466,170.88728965796105</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>-45.21700209674395,170.8864665219781</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>-45.217254059903155,170.88563572519269</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>-45.217794887701615,170.88509397869407</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>-45.21832087706347,170.8845649428826</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>-45.218889606497314,170.88414571994363</t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>-45.219476876054294,170.88380943109652</t>
+        </is>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:40+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr"/>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>-45.21673848555231,170.88726389224004</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>-45.2170123717932,170.88647308607233</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>-45.21730906551118,170.88569239205748</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>-45.217779295213916,170.88506420399492</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>-45.21829196477543,170.88448801378598</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>-45.21890788483747,170.88420285186132</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>-45.2194958018651,170.8838685869326</t>
+        </is>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0478/nzd0478.xlsx
+++ b/data/nzd0478/nzd0478.xlsx
@@ -29039,13 +29039,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0346</v>
+        <v>0.043</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0359</v>
+        <v>0.0476</v>
       </c>
       <c r="I2" t="n">
         <v>-0.3914537098399469</v>
@@ -29117,13 +29117,13 @@
         <v>0.1438436116195019</v>
       </c>
       <c r="F3" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0345</v>
+        <v>0.0423</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0356</v>
+        <v>0.0551</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3741869891071471</v>
@@ -29195,13 +29195,13 @@
         <v>0.2872265183540776</v>
       </c>
       <c r="F4" t="n">
-        <v>0.035</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0335</v>
+        <v>0.0565</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0357</v>
+        <v>0.1647</v>
       </c>
       <c r="I4" t="n">
         <v>-0.3425663285122028</v>
@@ -29273,13 +29273,13 @@
         <v>0.426420861002955</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06610000000000001</v>
+        <v>0.0527</v>
       </c>
       <c r="H5" t="n">
-        <v>0.076</v>
+        <v>0.1561</v>
       </c>
       <c r="I5" t="n">
         <v>-0.4681381090824807</v>
@@ -29351,13 +29351,13 @@
         <v>0.5687669077211162</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0771</v>
+        <v>0.1019</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0931</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>-0.411836776213596</v>
@@ -29429,13 +29429,13 @@
         <v>0.7122428648191244</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.095</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0573</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06759999999999999</v>
+        <v>0.126</v>
       </c>
       <c r="I7" t="n">
         <v>-0.5567549287938739</v>
@@ -29507,13 +29507,13 @@
         <v>0.8561214324096741</v>
       </c>
       <c r="F8" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0441</v>
+        <v>0.0521</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0504</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>-0.5451531040321217</v>
@@ -29585,13 +29585,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0447</v>
+        <v>0.0467</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0518</v>
+        <v>0.0621</v>
       </c>
       <c r="I9" t="n">
         <v>-0.4166290711139528</v>

--- a/data/nzd0478/nzd0478.xlsx
+++ b/data/nzd0478/nzd0478.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J636"/>
+  <dimension ref="A1:J638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23345,6 +23345,78 @@
       <c r="J636" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:28+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>336.21</v>
+      </c>
+      <c r="C637" t="n">
+        <v>331.75</v>
+      </c>
+      <c r="D637" t="n">
+        <v>324.42</v>
+      </c>
+      <c r="E637" t="n">
+        <v>327.18</v>
+      </c>
+      <c r="F637" t="n">
+        <v>331.73</v>
+      </c>
+      <c r="G637" t="n">
+        <v>330.2</v>
+      </c>
+      <c r="H637" t="n">
+        <v>330.6</v>
+      </c>
+      <c r="I637" t="n">
+        <v>334.87</v>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:45+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>336.48</v>
+      </c>
+      <c r="C638" t="n">
+        <v>332.3</v>
+      </c>
+      <c r="D638" t="n">
+        <v>324.8</v>
+      </c>
+      <c r="E638" t="n">
+        <v>325.67</v>
+      </c>
+      <c r="F638" t="n">
+        <v>331</v>
+      </c>
+      <c r="G638" t="n">
+        <v>329.39</v>
+      </c>
+      <c r="H638" t="n">
+        <v>330.68</v>
+      </c>
+      <c r="I638" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23359,7 +23431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B720"/>
+  <dimension ref="A1:B722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30567,6 +30639,26 @@
       </c>
       <c r="B720" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>
@@ -30734,34 +30826,34 @@
         <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0397</v>
+        <v>0.0396</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0472</v>
+        <v>0.0471</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3817048228332255</v>
+        <v>-0.3830780961838511</v>
       </c>
       <c r="J2" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K2" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3710350330451281</v>
+        <v>0.3739570589178763</v>
       </c>
       <c r="M2" t="n">
-        <v>2.625431622994885</v>
+        <v>2.623636803472492</v>
       </c>
       <c r="N2" t="n">
-        <v>10.66612090181368</v>
+        <v>10.64522844862552</v>
       </c>
       <c r="O2" t="n">
-        <v>3.265902769804037</v>
+        <v>3.262702629512154</v>
       </c>
       <c r="P2" t="n">
-        <v>348.367691236408</v>
+        <v>348.3844532143094</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -30816,34 +30908,34 @@
         <v>0.045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0416</v>
+        <v>0.0417</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0521</v>
+        <v>0.0523</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3884891419421136</v>
+        <v>-0.3900553285871657</v>
       </c>
       <c r="J3" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K3" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3929545199307622</v>
+        <v>0.3960361246771988</v>
       </c>
       <c r="M3" t="n">
-        <v>2.469847355120515</v>
+        <v>2.469826636355893</v>
       </c>
       <c r="N3" t="n">
-        <v>10.06876906852854</v>
+        <v>10.05371451694809</v>
       </c>
       <c r="O3" t="n">
-        <v>3.173132374882671</v>
+        <v>3.170759296595704</v>
       </c>
       <c r="P3" t="n">
-        <v>344.5085791935192</v>
+        <v>344.5276950189713</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -30898,34 +30990,34 @@
         <v>0.08</v>
       </c>
       <c r="G4" t="n">
-        <v>0.055</v>
+        <v>0.0548</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1554</v>
+        <v>0.1531</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2614442261612859</v>
+        <v>-0.2662868919553295</v>
       </c>
       <c r="J4" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K4" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1065101411639124</v>
+        <v>0.1100743693568019</v>
       </c>
       <c r="M4" t="n">
-        <v>3.982583321792268</v>
+        <v>3.992872389810548</v>
       </c>
       <c r="N4" t="n">
-        <v>24.76261164384196</v>
+        <v>24.84076944526437</v>
       </c>
       <c r="O4" t="n">
-        <v>4.976204542002063</v>
+        <v>4.984051509090207</v>
       </c>
       <c r="P4" t="n">
-        <v>338.5507206568412</v>
+        <v>338.6098317005054</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -30983,31 +31075,31 @@
         <v>0.0516</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1466</v>
+        <v>0.1453</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4621916996728698</v>
+        <v>-0.4665101136170548</v>
       </c>
       <c r="J5" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K5" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5016393988107875</v>
+        <v>0.5045031995030627</v>
       </c>
       <c r="M5" t="n">
-        <v>2.339192364002427</v>
+        <v>2.352141682747221</v>
       </c>
       <c r="N5" t="n">
-        <v>9.165074828605796</v>
+        <v>9.261834451634556</v>
       </c>
       <c r="O5" t="n">
-        <v>3.027387459279997</v>
+        <v>3.04332621511966</v>
       </c>
       <c r="P5" t="n">
-        <v>344.8634868209155</v>
+        <v>344.9162049453523</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31058,34 +31150,34 @@
         <v>0.14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09859999999999999</v>
+        <v>0.0993</v>
       </c>
       <c r="H6" t="n">
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4208416538800432</v>
+        <v>-0.421835147182871</v>
       </c>
       <c r="J6" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K6" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4612851063220528</v>
+        <v>0.4638800052806639</v>
       </c>
       <c r="M6" t="n">
-        <v>2.378325376535791</v>
+        <v>2.375074808946299</v>
       </c>
       <c r="N6" t="n">
-        <v>8.932369012303379</v>
+        <v>8.911274734723371</v>
       </c>
       <c r="O6" t="n">
-        <v>2.988706913081873</v>
+        <v>2.98517582978346</v>
       </c>
       <c r="P6" t="n">
-        <v>343.855340384121</v>
+        <v>343.8674699796803</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31136,34 +31228,34 @@
         <v>0.09</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0737</v>
+        <v>0.0741</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1209</v>
+        <v>0.1204</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5458305595857244</v>
+        <v>-0.5481367120123328</v>
       </c>
       <c r="J7" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K7" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6585658600670972</v>
+        <v>0.6607136654711201</v>
       </c>
       <c r="M7" t="n">
-        <v>2.058348714942128</v>
+        <v>2.062697611377778</v>
       </c>
       <c r="N7" t="n">
-        <v>6.670572270027665</v>
+        <v>6.685421855484713</v>
       </c>
       <c r="O7" t="n">
-        <v>2.582745103572488</v>
+        <v>2.585618273350634</v>
       </c>
       <c r="P7" t="n">
-        <v>347.4853789888535</v>
+        <v>347.5135319034375</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -31221,31 +31313,31 @@
         <v>0.05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0711</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5333018064648105</v>
+        <v>-0.5348547423067366</v>
       </c>
       <c r="J8" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K8" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5214434452100405</v>
+        <v>0.5241609225470124</v>
       </c>
       <c r="M8" t="n">
-        <v>2.664704820989043</v>
+        <v>2.662100629188803</v>
       </c>
       <c r="N8" t="n">
-        <v>11.2722817436222</v>
+        <v>11.25291721736027</v>
       </c>
       <c r="O8" t="n">
-        <v>3.357421889429775</v>
+        <v>3.354536811149979</v>
       </c>
       <c r="P8" t="n">
-        <v>346.9011345017807</v>
+        <v>346.9200901992045</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -31303,31 +31395,31 @@
         <v>0.0457</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0602</v>
+        <v>0.0601</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4027442084833318</v>
+        <v>-0.4044948515415852</v>
       </c>
       <c r="J9" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K9" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3605419069309558</v>
+        <v>0.3636658112401209</v>
       </c>
       <c r="M9" t="n">
-        <v>2.76305366577269</v>
+        <v>2.761814597647649</v>
       </c>
       <c r="N9" t="n">
-        <v>12.42380464025787</v>
+        <v>12.40528474244584</v>
       </c>
       <c r="O9" t="n">
-        <v>3.524741783486824</v>
+        <v>3.522113675400872</v>
       </c>
       <c r="P9" t="n">
-        <v>348.1906011428104</v>
+        <v>348.2119691461004</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -31369,7 +31461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J636"/>
+  <dimension ref="A1:J638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64449,6 +64541,110 @@
         </is>
       </c>
     </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:28+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>-45.21641655438049,170.88802579600164</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>-45.216751700084785,170.88727475972237</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>-45.21696667886904,170.8864438957052</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>-45.21725439245177,170.88563606778442</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>-45.21778214711451,170.88506964985115</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>-45.218329185992225,170.8845870511131</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>-45.218917248713495,170.88423212022346</t>
+        </is>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>-45.219514022568326,170.88392553896173</t>
+        </is>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:45+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>-45.216418543959826,170.8880277689796</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>-45.21675597897019,170.88727827863067</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>-45.216969795361024,170.8864458866365</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>-45.21724340795443,170.8856247515539</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>-45.21777823638668,170.88506218210807</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>-45.21832576384072,170.88457794551906</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>-45.21891754558659,170.88423304815058</t>
+        </is>
+      </c>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>-45.219515432723426,170.88392994665597</t>
+        </is>
+      </c>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
